--- a/workspace/read.xlsx
+++ b/workspace/read.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades-2019-09-ultimate-win-64bit-jre_20191007\pleiades\workspace\TransGenOriginal4\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C43F10-E51A-4FD0-95A1-317E78B29298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB03303-796D-4C45-A508-5776D0DCB685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CF77831B-039B-465C-9492-FB26E975FDA1}"/>
   </bookViews>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2A2F4D-6EEC-440E-AD27-FBF631B59CA0}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -998,611 +998,169 @@
     <col min="2" max="2" width="132.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="30" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="30" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="7"/>
       <c r="B30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>19</v>

--- a/workspace/read.xlsx
+++ b/workspace/read.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades-2019-09-ultimate-win-64bit-jre_20191007\pleiades\workspace\TransGenOriginal4\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB03303-796D-4C45-A508-5776D0DCB685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37FC7D3-18AF-4FBF-8188-3F87CC17505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CF77831B-039B-465C-9492-FB26E975FDA1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>部品名</t>
     <rPh sb="0" eb="2">
@@ -485,6 +485,12 @@
       <t>キュウトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマーがオフの時、ユーザーがオンボタンを押すと、オン0になる。</t>
+  </si>
+  <si>
+    <t>このツールの有用性を示すシナリオを用意するといいかも</t>
   </si>
 </sst>
 </file>
@@ -516,120 +522,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -638,39 +536,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2A2F4D-6EEC-440E-AD27-FBF631B59CA0}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -998,20 +881,23 @@
     <col min="2" max="2" width="132.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1019,13 +905,13 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1033,13 +919,13 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1047,19 +933,19 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1067,132 +953,464 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="30" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>44515</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
